--- a/2023秋CS1001A.20成绩登记表.xlsx
+++ b/2023秋CS1001A.20成绩登记表.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTC\CS2023Autumn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\USTC\CS2023Autumn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27325B29-4ED0-4B2B-97AD-5EAEF466B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF531D-3266-448F-B69A-67FD823AE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3600" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$7:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$7:$R$51</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="243">
   <si>
     <t>中国科学技术大学教学班学生名册</t>
   </si>
@@ -771,6 +771,78 @@
   </si>
   <si>
     <t>杨喆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>四</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>总分</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,12 +1015,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,7 +1023,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1272,13 +1347,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -1288,91 +1364,91 @@
     <col min="9" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1409,8 +1485,26 @@
       <c r="L7" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="M7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1447,8 +1541,27 @@
       <c r="L8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>M8+N8+O8+P8+Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="32.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1485,8 +1598,27 @@
       <c r="L9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>27</v>
+      </c>
+      <c r="Q9">
+        <v>20.5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9:R51" si="0">M9+N9+O9+P9+Q9</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="32.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1523,8 +1655,27 @@
       <c r="L10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>5.5</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1561,8 +1712,27 @@
       <c r="L11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>19.5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1599,8 +1769,27 @@
       <c r="L12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>19.5</v>
+      </c>
+      <c r="N12">
+        <v>6.5</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1637,8 +1826,27 @@
       <c r="L13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>15.5</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>13.5</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1675,8 +1883,27 @@
       <c r="L14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>21</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1713,8 +1940,27 @@
       <c r="L15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>19.5</v>
+      </c>
+      <c r="N15">
+        <v>5.5</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1751,8 +1997,27 @@
       <c r="L16">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1789,8 +2054,27 @@
       <c r="L17">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>21.5</v>
+      </c>
+      <c r="N17">
+        <v>6.5</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>19.5</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1827,8 +2111,27 @@
       <c r="L18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>16.5</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1865,8 +2168,27 @@
       <c r="L19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>12.5</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1903,8 +2225,27 @@
       <c r="L20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>19.5</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>24</v>
+      </c>
+      <c r="Q20">
+        <v>4.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1941,8 +2282,27 @@
       <c r="L21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <v>25.5</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1979,8 +2339,27 @@
       <c r="L22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>23.5</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>24</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -2017,8 +2396,27 @@
       <c r="L23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>20.5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="P23">
+        <v>18</v>
+      </c>
+      <c r="Q23">
+        <v>19.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -2055,8 +2453,27 @@
       <c r="L24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -2093,8 +2510,27 @@
       <c r="L25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>5.5</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>13.5</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -2131,8 +2567,27 @@
       <c r="L26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>6.5</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>19.5</v>
+      </c>
+      <c r="Q26">
+        <v>18</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -2169,8 +2624,27 @@
       <c r="L27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>22.5</v>
+      </c>
+      <c r="Q27">
+        <v>22.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -2207,8 +2681,27 @@
       <c r="L28">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>20.5</v>
+      </c>
+      <c r="N28">
+        <v>7.5</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <v>19</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -2245,8 +2738,27 @@
       <c r="L29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>19.5</v>
+      </c>
+      <c r="N29">
+        <v>6.5</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>21</v>
+      </c>
+      <c r="Q29">
+        <v>22.5</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -2283,8 +2795,27 @@
       <c r="L30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>19.5</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -2321,8 +2852,27 @@
       <c r="L31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>14.5</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31">
+        <v>13.5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -2359,8 +2909,27 @@
       <c r="L32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>16.5</v>
+      </c>
+      <c r="N32">
+        <v>2.5</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>17</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -2397,8 +2966,27 @@
       <c r="L33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>19.5</v>
+      </c>
+      <c r="N33">
+        <v>4.5</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>21</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -2435,8 +3023,27 @@
       <c r="L34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>20.5</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>19.5</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -2473,8 +3080,27 @@
       <c r="L35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>25.5</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -2511,8 +3137,27 @@
       <c r="L36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>24</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -2549,8 +3194,27 @@
       <c r="L37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>22.5</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -2587,8 +3251,27 @@
       <c r="L38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>18.5</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>24</v>
+      </c>
+      <c r="Q38">
+        <v>21</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -2625,8 +3308,27 @@
       <c r="L39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="P39">
+        <v>18</v>
+      </c>
+      <c r="Q39">
+        <v>15</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -2663,8 +3365,27 @@
       <c r="L40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>16.5</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -2701,8 +3422,27 @@
       <c r="L41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>16.5</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>22.5</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -2739,8 +3479,27 @@
       <c r="L42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <v>7.5</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>24</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -2777,8 +3536,27 @@
       <c r="L43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>18</v>
+      </c>
+      <c r="Q43">
+        <v>17</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37</v>
       </c>
@@ -2815,8 +3593,27 @@
       <c r="L44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>7.5</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44">
+        <v>25.5</v>
+      </c>
+      <c r="Q44">
+        <v>21</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38</v>
       </c>
@@ -2853,8 +3650,27 @@
       <c r="L45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>12</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -2891,8 +3707,27 @@
       <c r="L46">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>14.5</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>15</v>
+      </c>
+      <c r="Q46">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40</v>
       </c>
@@ -2929,8 +3764,27 @@
       <c r="L47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>4.5</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>15</v>
+      </c>
+      <c r="Q47">
+        <v>12</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -2967,8 +3821,27 @@
       <c r="L48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>17</v>
+      </c>
+      <c r="N48">
+        <v>4.5</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>16.5</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -3005,8 +3878,27 @@
       <c r="L49">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>20.5</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>22.5</v>
+      </c>
+      <c r="Q49">
+        <v>18.5</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="21.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -3043,8 +3935,27 @@
       <c r="L50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>5.5</v>
+      </c>
+      <c r="O50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>22.5</v>
+      </c>
+      <c r="Q50">
+        <v>21</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -3081,27 +3992,57 @@
       <c r="L51">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="M51">
+        <v>22</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>22.5</v>
+      </c>
+      <c r="Q51">
+        <v>23</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="D57" t="s">
         <v>230</v>
       </c>
       <c r="E57" t="s">
         <v>231</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:L51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:R51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="12">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:F4"/>
@@ -3109,11 +4050,6 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="G57:I57"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.3" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
